--- a/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/400000/Output_1_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2215416.759224569</v>
+        <v>2173592.977555562</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>460545.8926584664</v>
+        <v>460545.8926584666</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8768687.110075586</v>
+        <v>8768687.110075584</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7231658.734933135</v>
+        <v>7231658.734933134</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -667,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>207.0368788505634</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -703,13 +703,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -718,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -737,7 +737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>34.76355594718405</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -785,19 +785,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>88.80240975242404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,10 +910,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>18.29749587628862</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -943,16 +943,16 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>233.3820099375147</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="6">
@@ -974,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1022,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>108.9898966022302</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>104.0303293117518</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1077,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1110,7 +1110,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>37.10634673358876</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1141,22 +1141,22 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>11.86372679529251</v>
       </c>
       <c r="F8" t="n">
-        <v>196.9826481283071</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,22 +1177,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,28 +1211,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>110.0817264605106</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1262,22 +1262,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>69.90197782146217</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1347,16 +1347,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>108.1960350243787</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,16 +1378,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>20.04542026952331</v>
       </c>
       <c r="G11" t="n">
-        <v>383.1282703720283</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H11" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>163.6851955497072</v>
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>73.62980964006111</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S11" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>217.7829317747374</v>
@@ -1429,13 +1429,13 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H12" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>67.03858805571424</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S12" t="n">
         <v>159.6212195484502</v>
@@ -1505,19 +1505,19 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>154.2282790647271</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>174.4661638419362</v>
       </c>
     </row>
     <row r="13">
@@ -1539,16 +1539,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>91.35315769505117</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>139.0783256288915</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>115.1165353722832</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>132.724416079791</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I14" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>318.2801892474972</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H15" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>67.03858805571426</v>
@@ -1733,16 +1733,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>159.892600274699</v>
       </c>
       <c r="U15" t="n">
-        <v>219.9881595201828</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>183.3491759459577</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>16.97753447966465</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H17" t="n">
-        <v>54.77722488326635</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,22 +1891,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>85.76749393686309</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1934,16 +1934,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
         <v>136.6941370086349</v>
       </c>
       <c r="H18" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1982,16 +1982,16 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V18" t="n">
-        <v>188.4551676688973</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>93.63671653293575</v>
       </c>
     </row>
     <row r="19">
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>115.1165353722832</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>230.4314833239426</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>327.0451232326991</v>
+        <v>293.3380250302997</v>
       </c>
       <c r="I20" t="n">
-        <v>156.6181844511241</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T20" t="n">
         <v>217.7829317747374</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.136888730009664</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -2216,7 +2216,7 @@
         <v>197.5472709665096</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8986597023843</v>
+        <v>35.52816799353789</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2228,7 +2228,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2256,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>123.2952177189539</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2295,13 +2295,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>268.975507423183</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2320,19 +2320,19 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>231.2451960037813</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>327.0451232326991</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2383,7 +2383,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>95.78405660772245</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T24" t="n">
         <v>197.5472709665096</v>
       </c>
       <c r="U24" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>95.62025615464751</v>
       </c>
       <c r="W24" t="n">
         <v>251.6949831609196</v>
@@ -2465,7 +2465,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>62.0642260260843</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -2475,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>50.39085407108821</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>208.186039944154</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>108.4745897976403</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2569,10 +2569,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>414.089049841944</v>
+        <v>183.6817850224821</v>
       </c>
       <c r="H26" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>163.6851955497072</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2645,7 +2645,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>91.6867458199809</v>
+        <v>91.68674581998047</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2721,13 +2721,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>135.6806370499355</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>190.2462252260552</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2781,7 +2781,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2803,16 +2803,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>22.64746718047324</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.089049841944</v>
       </c>
       <c r="H29" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>85.22609963397683</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2860,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2882,7 +2882,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
         <v>136.6941370086349</v>
@@ -2924,10 +2924,10 @@
         <v>159.6212195484502</v>
       </c>
       <c r="T30" t="n">
-        <v>197.5472709665096</v>
+        <v>7.470667384471562</v>
       </c>
       <c r="U30" t="n">
-        <v>180.8912685137299</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>110.9705324835872</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>77.41754251185395</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3028,19 +3028,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>414.089049841944</v>
@@ -3079,25 +3079,25 @@
         <v>73.62980964006114</v>
       </c>
       <c r="S32" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>75.08933905549259</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>352.9643107068291</v>
       </c>
     </row>
     <row r="33">
@@ -3113,19 +3113,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>102.4376743759843</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>59.83930139749143</v>
       </c>
       <c r="S33" t="n">
-        <v>159.6212195484502</v>
+        <v>0.2749539156376067</v>
       </c>
       <c r="T33" t="n">
         <v>197.5472709665096</v>
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>96.16300945659094</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3243,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>16.83786409935501</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>16.19802658832895</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H35" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>73.62980964006114</v>
+        <v>51.76047351473308</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3322,19 +3322,19 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3350,7 +3350,7 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>27.02401093552104</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -3359,10 +3359,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I36" t="n">
         <v>67.03858805571426</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>159.6212195484502</v>
+        <v>108.0765134096995</v>
       </c>
       <c r="T36" t="n">
         <v>197.5472709665096</v>
@@ -3407,7 +3407,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>205.7729852034775</v>
@@ -3426,28 +3426,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>72.62501597002966</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>61.40499891743889</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3505,19 +3505,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>88.85488578130536</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>109.3955505390315</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,22 +3550,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -3593,16 +3593,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>106.238752975047</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,10 +3629,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>59.83930139749143</v>
+        <v>47.51221887101791</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>159.6212195484502</v>
       </c>
       <c r="T39" t="n">
         <v>197.5472709665096</v>
@@ -3650,7 +3650,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3663,28 +3663,28 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>36.48436605884923</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>139.0783256288916</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -3726,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>88.7697019033568</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>215.9776011748344</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,10 +3748,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>18.70008220276525</v>
       </c>
       <c r="G41" t="n">
         <v>414.089049841944</v>
@@ -3760,7 +3760,7 @@
         <v>327.0451232326991</v>
       </c>
       <c r="I41" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,22 +3787,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>105.4776050732666</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I42" t="n">
         <v>67.03858805571426</v>
@@ -3866,16 +3866,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T42" t="n">
-        <v>197.5472709665096</v>
+        <v>31.00171867547443</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3912,16 +3912,16 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.4465608509556</v>
+        <v>111.3550458383073</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I43" t="n">
-        <v>46.42649040097069</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>101.8423459247054</v>
       </c>
       <c r="C44" t="n">
         <v>365.2728917710076</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>327.0451232326991</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>116.6924930261965</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4024,10 +4024,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>217.7829317747374</v>
@@ -4036,7 +4036,7 @@
         <v>251.2485578939812</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>119.3260324149123</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
@@ -4070,13 +4070,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S45" t="n">
         <v>159.6212195484502</v>
@@ -4115,10 +4115,10 @@
         <v>225.8986597023843</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>181.2558810106744</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -4140,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>120.1263698699157</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>111.3550458383073</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>720.6083788665362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="C2" t="n">
-        <v>720.6083788665362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="D2" t="n">
-        <v>720.6083788665362</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="E2" t="n">
-        <v>518.2486856454962</v>
+        <v>255.9366034337592</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
         <v>31.35113235729608</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="X2" t="n">
-        <v>964.0571555106362</v>
+        <v>499.3853800778592</v>
       </c>
       <c r="Y2" t="n">
-        <v>964.0571555106362</v>
+        <v>255.9366034337592</v>
       </c>
     </row>
     <row r="3">
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223.7040404982626</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="C3" t="n">
-        <v>223.7040404982626</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="D3" t="n">
-        <v>223.7040404982626</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="E3" t="n">
-        <v>223.7040404982626</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="F3" t="n">
-        <v>223.7040404982626</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4412,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P3" t="n">
         <v>964.0571555106362</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V3" t="n">
-        <v>689.4702815141908</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W3" t="n">
-        <v>689.4702815141908</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="X3" t="n">
-        <v>481.618781308658</v>
+        <v>145.4496078827955</v>
       </c>
       <c r="Y3" t="n">
-        <v>391.9193775183306</v>
+        <v>145.4496078827955</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4506,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>41.77557929797318</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>281.7454097505996</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C5" t="n">
-        <v>281.7454097505996</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>281.7454097505996</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="E5" t="n">
-        <v>281.7454097505996</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>65.29076204560282</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>49.83345142425428</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>742.8341567219593</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>517.4848137278872</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>517.4848137278872</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V5" t="n">
-        <v>517.4848137278872</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W5" t="n">
-        <v>517.4848137278872</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X5" t="n">
-        <v>281.7454097505996</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y5" t="n">
-        <v>281.7454097505996</v>
+        <v>315.6850394389064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>168.9696854242497</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="C6" t="n">
-        <v>168.9696854242497</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4649,16 +4649,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
-        <v>725.4530095217538</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O6" t="n">
         <v>964.0571555106362</v>
@@ -4670,28 +4670,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>752.7968214148045</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>752.7968214148045</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>752.7968214148045</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V6" t="n">
-        <v>752.7968214148045</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W6" t="n">
-        <v>752.7968214148045</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="X6" t="n">
-        <v>544.9453212092717</v>
+        <v>395.6002882963414</v>
       </c>
       <c r="Y6" t="n">
-        <v>337.1850224443177</v>
+        <v>395.6002882963414</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4758,19 +4758,19 @@
         <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>233.7108255783361</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="C8" t="n">
-        <v>233.7108255783361</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="D8" t="n">
-        <v>233.7108255783361</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="E8" t="n">
-        <v>233.7108255783361</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U8" t="n">
-        <v>720.6083788665362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V8" t="n">
-        <v>477.1596022224361</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W8" t="n">
-        <v>477.1596022224361</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X8" t="n">
-        <v>477.1596022224361</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="Y8" t="n">
-        <v>233.7108255783361</v>
+        <v>742.8341567219593</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20.03527576299844</v>
+        <v>852.8634924192114</v>
       </c>
       <c r="C9" t="n">
-        <v>20.03527576299844</v>
+        <v>678.4104631380844</v>
       </c>
       <c r="D9" t="n">
-        <v>20.03527576299844</v>
+        <v>529.4760534768332</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>370.2385984713777</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4895,10 +4895,10 @@
         <v>487.8483949674443</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P9" t="n">
         <v>964.0571555106362</v>
@@ -4910,25 +4910,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>893.4490971051189</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>691.2625024638849</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>463.038884200274</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>227.8867759685313</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>227.8867759685313</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>20.03527576299844</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4995,13 +4995,13 @@
         <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
         <v>41.77557929797318</v>
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>929.5804400319823</v>
+        <v>1036.541497182489</v>
       </c>
       <c r="C11" t="n">
-        <v>929.5804400319823</v>
+        <v>1036.541497182489</v>
       </c>
       <c r="D11" t="n">
-        <v>929.5804400319823</v>
+        <v>1036.541497182489</v>
       </c>
       <c r="E11" t="n">
-        <v>929.5804400319823</v>
+        <v>650.7532445842448</v>
       </c>
       <c r="F11" t="n">
-        <v>929.5804400319823</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G11" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H11" t="n">
         <v>212.2335778049849</v>
@@ -5041,52 +5041,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J11" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K11" t="n">
-        <v>392.9020949275679</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L11" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244547</v>
       </c>
       <c r="M11" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N11" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O11" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P11" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q11" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R11" t="n">
-        <v>2270.376276991246</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S11" t="n">
-        <v>2087.181164129222</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T11" t="n">
-        <v>1867.1984047608</v>
+        <v>2050.393517622823</v>
       </c>
       <c r="U11" t="n">
-        <v>1613.411982645667</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V11" t="n">
-        <v>1282.349095302096</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="W11" t="n">
-        <v>929.5804400319823</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="X11" t="n">
-        <v>929.5804400319823</v>
+        <v>1423.141337246611</v>
       </c>
       <c r="Y11" t="n">
-        <v>929.5804400319823</v>
+        <v>1423.141337246611</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.8792202047736</v>
+        <v>881.8450797407235</v>
       </c>
       <c r="C12" t="n">
-        <v>814.4261909236466</v>
+        <v>707.3920504595965</v>
       </c>
       <c r="D12" t="n">
-        <v>665.4917812623953</v>
+        <v>558.4576407983452</v>
       </c>
       <c r="E12" t="n">
-        <v>506.2543262569397</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F12" t="n">
-        <v>359.7197682838247</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G12" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H12" t="n">
         <v>114.6107419524668</v>
@@ -5120,52 +5120,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J12" t="n">
-        <v>106.8945330050503</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K12" t="n">
-        <v>336.0641406922997</v>
+        <v>273.1268607498445</v>
       </c>
       <c r="L12" t="n">
-        <v>705.6153558007836</v>
+        <v>642.6780758583284</v>
       </c>
       <c r="M12" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N12" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O12" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P12" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q12" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R12" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S12" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T12" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U12" t="n">
-        <v>1755.793104690959</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="V12" t="n">
-        <v>1520.640996459217</v>
+        <v>1688.377722019714</v>
       </c>
       <c r="W12" t="n">
-        <v>1520.640996459217</v>
+        <v>1434.140365291512</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.854855989795</v>
+        <v>1226.28886508598</v>
       </c>
       <c r="Y12" t="n">
-        <v>1157.094557224842</v>
+        <v>1050.060416760791</v>
       </c>
     </row>
     <row r="13">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F13" t="n">
-        <v>515.4926565726222</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G13" t="n">
-        <v>346.3547163191316</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H13" t="n">
-        <v>187.3781536425449</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I13" t="n">
         <v>46.89499644164432</v>
@@ -5202,49 +5202,49 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K13" t="n">
-        <v>87.46721626702977</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L13" t="n">
-        <v>194.9121237200978</v>
+        <v>194.9121237200977</v>
       </c>
       <c r="M13" t="n">
-        <v>318.5868368362075</v>
+        <v>318.5868368362074</v>
       </c>
       <c r="N13" t="n">
-        <v>444.7554581228448</v>
+        <v>444.7554581228447</v>
       </c>
       <c r="O13" t="n">
-        <v>545.2763053496715</v>
+        <v>545.2763053496714</v>
       </c>
       <c r="P13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="Q13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="R13" t="n">
-        <v>607.7685734363102</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S13" t="n">
-        <v>607.7685734363102</v>
+        <v>391.0727469424308</v>
       </c>
       <c r="T13" t="n">
-        <v>607.7685734363102</v>
+        <v>163.1743251005162</v>
       </c>
       <c r="U13" t="n">
-        <v>607.7685734363102</v>
+        <v>163.1743251005162</v>
       </c>
       <c r="V13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="W13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y13" t="n">
-        <v>607.7685734363102</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="14">
@@ -5254,61 +5254,61 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>960.8539546480588</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="C14" t="n">
-        <v>960.8539546480588</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="D14" t="n">
-        <v>960.8539546480588</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="E14" t="n">
-        <v>960.8539546480588</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F14" t="n">
-        <v>960.8539546480588</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G14" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H14" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I14" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J14" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K14" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L14" t="n">
-        <v>762.5916738244553</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M14" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N14" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O14" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P14" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q14" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R14" t="n">
-        <v>2270.376276991246</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S14" t="n">
-        <v>2087.181164129222</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="T14" t="n">
-        <v>1867.1984047608</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="U14" t="n">
         <v>1613.411982645667</v>
@@ -5317,13 +5317,13 @@
         <v>1282.349095302096</v>
       </c>
       <c r="W14" t="n">
-        <v>960.8539546480588</v>
+        <v>929.5804400319819</v>
       </c>
       <c r="X14" t="n">
-        <v>960.8539546480588</v>
+        <v>929.5804400319819</v>
       </c>
       <c r="Y14" t="n">
-        <v>960.8539546480588</v>
+        <v>929.5804400319819</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>988.8792202047736</v>
+        <v>881.8450797407235</v>
       </c>
       <c r="C15" t="n">
-        <v>814.4261909236466</v>
+        <v>707.3920504595965</v>
       </c>
       <c r="D15" t="n">
-        <v>665.4917812623953</v>
+        <v>558.4576407983452</v>
       </c>
       <c r="E15" t="n">
-        <v>506.2543262569397</v>
+        <v>399.2201857928898</v>
       </c>
       <c r="F15" t="n">
-        <v>359.7197682838247</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G15" t="n">
-        <v>221.6448824165167</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H15" t="n">
         <v>114.6107419524668</v>
@@ -5357,52 +5357,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J15" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K15" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L15" t="n">
-        <v>705.6153558007834</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M15" t="n">
-        <v>974.4476973832905</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N15" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O15" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P15" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q15" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S15" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T15" t="n">
-        <v>2284.306083296871</v>
+        <v>2183.242145037065</v>
       </c>
       <c r="U15" t="n">
-        <v>2062.095821155272</v>
+        <v>1955.061680691222</v>
       </c>
       <c r="V15" t="n">
-        <v>1826.94371292353</v>
+        <v>1719.90957245948</v>
       </c>
       <c r="W15" t="n">
-        <v>1572.706356195328</v>
+        <v>1465.672215731278</v>
       </c>
       <c r="X15" t="n">
-        <v>1364.854855989795</v>
+        <v>1257.820715525745</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.094557224842</v>
+        <v>1050.060416760791</v>
       </c>
     </row>
     <row r="16">
@@ -5412,22 +5412,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>205.8715591182311</v>
+        <v>362.7211268674616</v>
       </c>
       <c r="C16" t="n">
-        <v>205.8715591182311</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="D16" t="n">
-        <v>205.8715591182311</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="E16" t="n">
-        <v>205.8715591182311</v>
+        <v>193.7849439395547</v>
       </c>
       <c r="F16" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G16" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H16" t="n">
         <v>46.89499644164432</v>
@@ -5439,7 +5439,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K16" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L16" t="n">
         <v>194.9121237200977</v>
@@ -5463,25 +5463,25 @@
         <v>607.7685734363101</v>
       </c>
       <c r="S16" t="n">
-        <v>391.0727469424308</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T16" t="n">
-        <v>205.8715591182311</v>
+        <v>379.8701515943956</v>
       </c>
       <c r="U16" t="n">
-        <v>205.8715591182311</v>
+        <v>362.7211268674616</v>
       </c>
       <c r="V16" t="n">
-        <v>205.8715591182311</v>
+        <v>362.7211268674616</v>
       </c>
       <c r="W16" t="n">
-        <v>205.8715591182311</v>
+        <v>362.7211268674616</v>
       </c>
       <c r="X16" t="n">
-        <v>205.8715591182311</v>
+        <v>362.7211268674616</v>
       </c>
       <c r="Y16" t="n">
-        <v>205.8715591182311</v>
+        <v>362.7211268674616</v>
       </c>
     </row>
     <row r="17">
@@ -5491,37 +5491,37 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1215.241994772168</v>
+        <v>988.7710439288505</v>
       </c>
       <c r="C17" t="n">
-        <v>846.2794778317566</v>
+        <v>988.7710439288505</v>
       </c>
       <c r="D17" t="n">
-        <v>488.0137792250061</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="E17" t="n">
-        <v>102.2255266267618</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="F17" t="n">
-        <v>102.2255266267618</v>
+        <v>630.5053453221001</v>
       </c>
       <c r="G17" t="n">
-        <v>102.2255266267618</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H17" t="n">
-        <v>46.89499644164432</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I17" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J17" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K17" t="n">
-        <v>392.9020949275676</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L17" t="n">
-        <v>762.5916738244548</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M17" t="n">
         <v>1190.549107376118</v>
@@ -5539,28 +5539,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S17" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T17" t="n">
-        <v>2344.749822082216</v>
+        <v>2050.393517622823</v>
       </c>
       <c r="U17" t="n">
-        <v>2344.749822082216</v>
+        <v>1796.607095507691</v>
       </c>
       <c r="V17" t="n">
-        <v>2344.749822082216</v>
+        <v>1465.54420816412</v>
       </c>
       <c r="W17" t="n">
-        <v>1991.981166812102</v>
+        <v>1378.910375904662</v>
       </c>
       <c r="X17" t="n">
-        <v>1991.981166812102</v>
+        <v>1378.910375904662</v>
       </c>
       <c r="Y17" t="n">
-        <v>1601.84183483629</v>
+        <v>988.7710439288505</v>
       </c>
     </row>
     <row r="18">
@@ -5570,49 +5570,49 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>921.1634746939509</v>
+        <v>735.3105217676085</v>
       </c>
       <c r="C18" t="n">
-        <v>746.7104454128239</v>
+        <v>560.8574924864815</v>
       </c>
       <c r="D18" t="n">
-        <v>597.7760357515726</v>
+        <v>411.9230828252303</v>
       </c>
       <c r="E18" t="n">
-        <v>438.5385807461172</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="F18" t="n">
-        <v>292.0040227730022</v>
+        <v>252.6856278197748</v>
       </c>
       <c r="G18" t="n">
-        <v>153.9291369056942</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="H18" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I18" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J18" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K18" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L18" t="n">
-        <v>705.6153558007834</v>
+        <v>642.6780758583284</v>
       </c>
       <c r="M18" t="n">
-        <v>974.44769738329</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N18" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O18" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P18" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q18" t="n">
         <v>2344.749822082216</v>
@@ -5630,16 +5630,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V18" t="n">
-        <v>1504.990610684506</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W18" t="n">
-        <v>1504.990610684506</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X18" t="n">
-        <v>1297.139110478973</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y18" t="n">
-        <v>1089.378811714019</v>
+        <v>903.5258587876765</v>
       </c>
     </row>
     <row r="19">
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>46.89499644164432</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="C19" t="n">
-        <v>46.89499644164432</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="D19" t="n">
-        <v>46.89499644164432</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="E19" t="n">
-        <v>46.89499644164432</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="F19" t="n">
-        <v>46.89499644164432</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="G19" t="n">
-        <v>46.89499644164432</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H19" t="n">
         <v>46.89499644164432</v>
@@ -5697,28 +5697,28 @@
         <v>607.7685734363101</v>
       </c>
       <c r="R19" t="n">
-        <v>491.4892447774382</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="S19" t="n">
-        <v>274.7934182835589</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="T19" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="U19" t="n">
-        <v>46.89499644164432</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V19" t="n">
-        <v>46.89499644164432</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="W19" t="n">
-        <v>46.89499644164432</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="X19" t="n">
-        <v>46.89499644164432</v>
+        <v>375.0094993717216</v>
       </c>
       <c r="Y19" t="n">
-        <v>46.89499644164432</v>
+        <v>375.0094993717216</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1364.701464388593</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="C20" t="n">
-        <v>1364.701464388593</v>
+        <v>1498.235887820388</v>
       </c>
       <c r="D20" t="n">
-        <v>1364.701464388593</v>
+        <v>1139.970189213637</v>
       </c>
       <c r="E20" t="n">
-        <v>1364.701464388593</v>
+        <v>754.1819366153929</v>
       </c>
       <c r="F20" t="n">
-        <v>953.715559598985</v>
+        <v>343.1960318257854</v>
       </c>
       <c r="G20" t="n">
-        <v>535.4437920818698</v>
+        <v>343.1960318257854</v>
       </c>
       <c r="H20" t="n">
-        <v>205.0951827559111</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I20" t="n">
         <v>46.89499644164432</v>
@@ -5776,28 +5776,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R20" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S20" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129221</v>
       </c>
       <c r="T20" t="n">
-        <v>2124.767062713794</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="U20" t="n">
-        <v>2124.767062713794</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="V20" t="n">
-        <v>2124.767062713794</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="W20" t="n">
-        <v>2124.767062713794</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="X20" t="n">
-        <v>1751.301304452714</v>
+        <v>1867.198404760799</v>
       </c>
       <c r="Y20" t="n">
-        <v>1751.301304452714</v>
+        <v>1867.198404760799</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>988.8792202047736</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="C21" t="n">
         <v>814.4261909236466</v>
@@ -5864,19 +5864,19 @@
         <v>1923.529830251457</v>
       </c>
       <c r="U21" t="n">
-        <v>1695.349365905614</v>
+        <v>1887.642791874146</v>
       </c>
       <c r="V21" t="n">
-        <v>1460.197257673871</v>
+        <v>1652.490683642403</v>
       </c>
       <c r="W21" t="n">
-        <v>1205.95990094567</v>
+        <v>1398.253326914201</v>
       </c>
       <c r="X21" t="n">
-        <v>998.1084007401369</v>
+        <v>1190.401826708669</v>
       </c>
       <c r="Y21" t="n">
-        <v>998.1084007401369</v>
+        <v>982.6415279437147</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>171.4356204001836</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C22" t="n">
-        <v>171.4356204001836</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D22" t="n">
-        <v>171.4356204001836</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E22" t="n">
-        <v>171.4356204001836</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F22" t="n">
-        <v>171.4356204001836</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G22" t="n">
-        <v>171.4356204001836</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H22" t="n">
         <v>46.89499644164432</v>
@@ -5943,19 +5943,19 @@
         <v>607.7685734363101</v>
       </c>
       <c r="U22" t="n">
-        <v>607.7685734363101</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="V22" t="n">
-        <v>353.0840852304233</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="W22" t="n">
-        <v>353.0840852304233</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="X22" t="n">
-        <v>353.0840852304233</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y22" t="n">
-        <v>353.0840852304233</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1187.149097984977</v>
+        <v>1269.810402678106</v>
       </c>
       <c r="C23" t="n">
-        <v>1187.149097984977</v>
+        <v>900.847885737694</v>
       </c>
       <c r="D23" t="n">
-        <v>1187.149097984977</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="E23" t="n">
-        <v>1187.149097984977</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="F23" t="n">
-        <v>776.1631931953691</v>
+        <v>542.5821871309436</v>
       </c>
       <c r="G23" t="n">
         <v>542.5821871309436</v>
@@ -5989,22 +5989,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J23" t="n">
-        <v>137.0453218915532</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K23" t="n">
-        <v>392.9020949275672</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L23" t="n">
-        <v>762.5916738244546</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M23" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N23" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O23" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P23" t="n">
         <v>2224.886645733486</v>
@@ -6013,28 +6013,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R23" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="S23" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T23" t="n">
-        <v>2124.767062713794</v>
+        <v>2050.393517622823</v>
       </c>
       <c r="U23" t="n">
-        <v>1870.980640598661</v>
+        <v>2050.393517622823</v>
       </c>
       <c r="V23" t="n">
-        <v>1539.917753255091</v>
+        <v>1719.330630279253</v>
       </c>
       <c r="W23" t="n">
-        <v>1187.149097984977</v>
+        <v>1366.561975009138</v>
       </c>
       <c r="X23" t="n">
-        <v>1187.149097984977</v>
+        <v>1269.810402678106</v>
       </c>
       <c r="Y23" t="n">
-        <v>1187.149097984977</v>
+        <v>1269.810402678106</v>
       </c>
     </row>
     <row r="24">
@@ -6071,46 +6071,46 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K24" t="n">
-        <v>276.0646041288937</v>
+        <v>121.6684232076318</v>
       </c>
       <c r="L24" t="n">
-        <v>645.6158192373775</v>
+        <v>491.2196383161157</v>
       </c>
       <c r="M24" t="n">
-        <v>1128.843878304552</v>
+        <v>974.44769738329</v>
       </c>
       <c r="N24" t="n">
-        <v>1640.568559592725</v>
+        <v>1486.172378671464</v>
       </c>
       <c r="O24" t="n">
-        <v>2042.280991189052</v>
+        <v>1887.88481026779</v>
       </c>
       <c r="P24" t="n">
-        <v>2344.749822082216</v>
+        <v>2193.291384540003</v>
       </c>
       <c r="Q24" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R24" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S24" t="n">
-        <v>2344.749822082216</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T24" t="n">
-        <v>2145.207124136246</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U24" t="n">
-        <v>1917.026659790404</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="V24" t="n">
-        <v>1681.874551558661</v>
+        <v>1826.94371292353</v>
       </c>
       <c r="W24" t="n">
-        <v>1427.63719483046</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X24" t="n">
-        <v>1219.785694624927</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y24" t="n">
         <v>1157.094557224842</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.79484903870312</v>
+        <v>215.8311793695512</v>
       </c>
       <c r="C25" t="n">
-        <v>97.79484903870312</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D25" t="n">
-        <v>97.79484903870312</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E25" t="n">
-        <v>97.79484903870312</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F25" t="n">
-        <v>97.79484903870312</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G25" t="n">
-        <v>97.79484903870312</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H25" t="n">
-        <v>97.79484903870312</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I25" t="n">
         <v>46.89499644164432</v>
@@ -6180,19 +6180,19 @@
         <v>607.7685734363101</v>
       </c>
       <c r="U25" t="n">
-        <v>318.5874281822332</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V25" t="n">
-        <v>318.5874281822332</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="W25" t="n">
-        <v>318.5874281822332</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="X25" t="n">
-        <v>318.5874281822332</v>
+        <v>397.4796441997909</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.79484903870312</v>
+        <v>397.4796441997909</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1757.628112035911</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="C26" t="n">
-        <v>1757.628112035911</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="D26" t="n">
-        <v>1757.628112035911</v>
+        <v>1194.544891781203</v>
       </c>
       <c r="E26" t="n">
-        <v>1371.839859437666</v>
+        <v>808.7566391829582</v>
       </c>
       <c r="F26" t="n">
-        <v>960.8539546480588</v>
+        <v>397.7707343933507</v>
       </c>
       <c r="G26" t="n">
-        <v>542.5821871309436</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H26" t="n">
         <v>212.2335778049849</v>
@@ -6226,52 +6226,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0453218915536</v>
+        <v>137.0453218915535</v>
       </c>
       <c r="K26" t="n">
-        <v>392.9020949275678</v>
+        <v>392.9020949275676</v>
       </c>
       <c r="L26" t="n">
-        <v>762.591673824455</v>
+        <v>762.5916738244547</v>
       </c>
       <c r="M26" t="n">
-        <v>1190.549107376119</v>
+        <v>1190.549107376118</v>
       </c>
       <c r="N26" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O26" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P26" t="n">
-        <v>2224.886645733487</v>
+        <v>2224.886645733486</v>
       </c>
       <c r="Q26" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R26" t="n">
-        <v>2270.376276991246</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S26" t="n">
-        <v>2087.181164129222</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T26" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U26" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="V26" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="W26" t="n">
-        <v>1867.1984047608</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="X26" t="n">
-        <v>1867.1984047608</v>
+        <v>1971.284063821136</v>
       </c>
       <c r="Y26" t="n">
-        <v>1867.1984047608</v>
+        <v>1581.144731845324</v>
       </c>
     </row>
     <row r="27">
@@ -6281,16 +6281,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>622.1327649551154</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C27" t="n">
-        <v>447.6797356739884</v>
+        <v>447.6797356739879</v>
       </c>
       <c r="D27" t="n">
-        <v>298.7453260127371</v>
+        <v>298.7453260127367</v>
       </c>
       <c r="E27" t="n">
-        <v>139.5078710072816</v>
+        <v>139.5078710072812</v>
       </c>
       <c r="F27" t="n">
         <v>46.89499644164432</v>
@@ -6305,19 +6305,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J27" t="n">
-        <v>46.89499644164432</v>
+        <v>106.8945330050502</v>
       </c>
       <c r="K27" t="n">
-        <v>121.6684232076323</v>
+        <v>336.0641406922996</v>
       </c>
       <c r="L27" t="n">
-        <v>491.2196383161161</v>
+        <v>705.6153558007834</v>
       </c>
       <c r="M27" t="n">
-        <v>974.4476973832905</v>
+        <v>1188.843414867958</v>
       </c>
       <c r="N27" t="n">
-        <v>1486.172378671464</v>
+        <v>1700.568096156131</v>
       </c>
       <c r="O27" t="n">
         <v>1887.88481026779</v>
@@ -6341,16 +6341,16 @@
         <v>1695.349365905614</v>
       </c>
       <c r="V27" t="n">
-        <v>1460.197257673872</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W27" t="n">
         <v>1205.95990094567</v>
       </c>
       <c r="X27" t="n">
-        <v>998.1084007401373</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y27" t="n">
-        <v>790.3481019751835</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="28">
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>194.8080900240374</v>
+        <v>353.0840852304233</v>
       </c>
       <c r="C28" t="n">
-        <v>194.8080900240374</v>
+        <v>353.0840852304233</v>
       </c>
       <c r="D28" t="n">
-        <v>194.8080900240374</v>
+        <v>353.0840852304233</v>
       </c>
       <c r="E28" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="F28" t="n">
-        <v>46.89499644164432</v>
+        <v>216.0329366951349</v>
       </c>
       <c r="G28" t="n">
         <v>46.89499644164432</v>
@@ -6387,7 +6387,7 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K28" t="n">
-        <v>87.46721626702976</v>
+        <v>87.46721626702974</v>
       </c>
       <c r="L28" t="n">
         <v>194.9121237200977</v>
@@ -6417,19 +6417,19 @@
         <v>607.7685734363101</v>
       </c>
       <c r="U28" t="n">
-        <v>415.6006691675675</v>
+        <v>607.7685734363101</v>
       </c>
       <c r="V28" t="n">
-        <v>415.6006691675675</v>
+        <v>353.0840852304233</v>
       </c>
       <c r="W28" t="n">
-        <v>415.6006691675675</v>
+        <v>353.0840852304233</v>
       </c>
       <c r="X28" t="n">
-        <v>415.6006691675675</v>
+        <v>353.0840852304233</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.8080900240374</v>
+        <v>353.0840852304233</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1369.518436721529</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="C29" t="n">
-        <v>1369.518436721529</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="D29" t="n">
-        <v>1369.518436721529</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E29" t="n">
-        <v>983.7301841232843</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F29" t="n">
-        <v>960.8539546480588</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G29" t="n">
-        <v>542.5821871309436</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H29" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I29" t="n">
         <v>46.89499644164432</v>
@@ -6469,7 +6469,7 @@
         <v>392.9020949275676</v>
       </c>
       <c r="L29" t="n">
-        <v>762.5916738244549</v>
+        <v>762.591673824455</v>
       </c>
       <c r="M29" t="n">
         <v>1190.549107376118</v>
@@ -6487,28 +6487,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R29" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S29" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T29" t="n">
-        <v>2087.181164129221</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="U29" t="n">
-        <v>2087.181164129221</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="V29" t="n">
-        <v>1756.11827678565</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="W29" t="n">
-        <v>1756.11827678565</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="X29" t="n">
-        <v>1756.11827678565</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="Y29" t="n">
-        <v>1756.11827678565</v>
+        <v>1648.540761410733</v>
       </c>
     </row>
     <row r="30">
@@ -6518,16 +6518,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>667.5947762567861</v>
+        <v>814.129334229901</v>
       </c>
       <c r="C30" t="n">
-        <v>493.141746975659</v>
+        <v>639.676304948774</v>
       </c>
       <c r="D30" t="n">
-        <v>344.2073373144078</v>
+        <v>490.7418952875228</v>
       </c>
       <c r="E30" t="n">
-        <v>184.9698823089523</v>
+        <v>331.5044402820673</v>
       </c>
       <c r="F30" t="n">
         <v>184.9698823089523</v>
@@ -6545,19 +6545,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="K30" t="n">
-        <v>273.1268607498445</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L30" t="n">
-        <v>642.6780758583284</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M30" t="n">
-        <v>1125.906134925503</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N30" t="n">
-        <v>1637.630816213676</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O30" t="n">
-        <v>2039.343247810003</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P30" t="n">
         <v>2344.749822082216</v>
@@ -6572,22 +6572,22 @@
         <v>2123.072528197426</v>
       </c>
       <c r="T30" t="n">
-        <v>1923.529830251457</v>
+        <v>2115.526399526243</v>
       </c>
       <c r="U30" t="n">
-        <v>1740.811377207285</v>
+        <v>1887.3459351804</v>
       </c>
       <c r="V30" t="n">
-        <v>1505.659268975542</v>
+        <v>1652.193826948657</v>
       </c>
       <c r="W30" t="n">
-        <v>1251.421912247341</v>
+        <v>1397.956470220456</v>
       </c>
       <c r="X30" t="n">
-        <v>1043.570412041808</v>
+        <v>1190.104970014923</v>
       </c>
       <c r="Y30" t="n">
-        <v>835.8101132768541</v>
+        <v>982.344671249969</v>
       </c>
     </row>
     <row r="31">
@@ -6648,22 +6648,22 @@
         <v>607.7685734363101</v>
       </c>
       <c r="S31" t="n">
-        <v>607.7685734363101</v>
+        <v>495.6771264831918</v>
       </c>
       <c r="T31" t="n">
-        <v>607.7685734363101</v>
+        <v>495.6771264831918</v>
       </c>
       <c r="U31" t="n">
-        <v>529.5690355455486</v>
+        <v>495.6771264831918</v>
       </c>
       <c r="V31" t="n">
-        <v>274.8845473396617</v>
+        <v>495.6771264831918</v>
       </c>
       <c r="W31" t="n">
-        <v>274.8845473396617</v>
+        <v>495.6771264831918</v>
       </c>
       <c r="X31" t="n">
-        <v>46.89499644164432</v>
+        <v>267.6875755851744</v>
       </c>
       <c r="Y31" t="n">
         <v>46.89499644164432</v>
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1206.501278074326</v>
+        <v>1153.781071891469</v>
       </c>
       <c r="C32" t="n">
-        <v>1206.501278074326</v>
+        <v>1153.781071891469</v>
       </c>
       <c r="D32" t="n">
-        <v>1206.501278074326</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="E32" t="n">
-        <v>1206.501278074326</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="F32" t="n">
         <v>795.5153732847182</v>
@@ -6727,25 +6727,25 @@
         <v>2270.376276991245</v>
       </c>
       <c r="S32" t="n">
-        <v>2087.181164129221</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="T32" t="n">
-        <v>1867.198404760799</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="U32" t="n">
-        <v>1613.411982645667</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="V32" t="n">
-        <v>1282.349095302096</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="W32" t="n">
-        <v>1206.501278074326</v>
+        <v>2270.376276991245</v>
       </c>
       <c r="X32" t="n">
-        <v>1206.501278074326</v>
+        <v>1896.910518730165</v>
       </c>
       <c r="Y32" t="n">
-        <v>1206.501278074326</v>
+        <v>1540.38091195559</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>622.1327649551149</v>
+        <v>783.0885888266431</v>
       </c>
       <c r="C33" t="n">
-        <v>447.6797356739879</v>
+        <v>608.6355595455161</v>
       </c>
       <c r="D33" t="n">
-        <v>344.2073373144078</v>
+        <v>459.7011498842648</v>
       </c>
       <c r="E33" t="n">
-        <v>184.9698823089523</v>
+        <v>300.4636948788093</v>
       </c>
       <c r="F33" t="n">
-        <v>184.9698823089523</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="G33" t="n">
-        <v>46.89499644164432</v>
+        <v>153.9291369056942</v>
       </c>
       <c r="H33" t="n">
         <v>46.89499644164432</v>
@@ -6779,25 +6779,25 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J33" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K33" t="n">
-        <v>121.6684232076318</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L33" t="n">
-        <v>491.2196383161157</v>
+        <v>642.6780758583284</v>
       </c>
       <c r="M33" t="n">
-        <v>974.44769738329</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N33" t="n">
-        <v>1486.172378671464</v>
+        <v>1637.630816213676</v>
       </c>
       <c r="O33" t="n">
-        <v>1887.88481026779</v>
+        <v>2039.343247810003</v>
       </c>
       <c r="P33" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q33" t="n">
         <v>2344.749822082216</v>
@@ -6806,25 +6806,25 @@
         <v>2284.306083296871</v>
       </c>
       <c r="S33" t="n">
-        <v>2123.072528197426</v>
+        <v>2284.028352068954</v>
       </c>
       <c r="T33" t="n">
-        <v>1923.529830251457</v>
+        <v>2084.485654122985</v>
       </c>
       <c r="U33" t="n">
-        <v>1695.349365905614</v>
+        <v>1856.305189777142</v>
       </c>
       <c r="V33" t="n">
-        <v>1460.197257673871</v>
+        <v>1621.153081545399</v>
       </c>
       <c r="W33" t="n">
-        <v>1205.95990094567</v>
+        <v>1366.915724817198</v>
       </c>
       <c r="X33" t="n">
-        <v>998.1084007401369</v>
+        <v>1159.064224611665</v>
       </c>
       <c r="Y33" t="n">
-        <v>790.348101975183</v>
+        <v>951.3039258467111</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>607.7685734363101</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="C34" t="n">
-        <v>438.8323905084033</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="D34" t="n">
-        <v>341.6980375219478</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E34" t="n">
-        <v>193.7849439395547</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F34" t="n">
         <v>46.89499644164432</v>
@@ -6891,19 +6891,19 @@
         <v>607.7685734363101</v>
       </c>
       <c r="U34" t="n">
-        <v>607.7685734363101</v>
+        <v>318.5874281822332</v>
       </c>
       <c r="V34" t="n">
-        <v>607.7685734363101</v>
+        <v>63.90293997634635</v>
       </c>
       <c r="W34" t="n">
-        <v>607.7685734363101</v>
+        <v>63.90293997634635</v>
       </c>
       <c r="X34" t="n">
-        <v>607.7685734363101</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="Y34" t="n">
-        <v>607.7685734363101</v>
+        <v>46.89499644164432</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1901.245978702617</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="C35" t="n">
-        <v>1532.283461762205</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="D35" t="n">
-        <v>1174.017763155455</v>
+        <v>1261.940921346611</v>
       </c>
       <c r="E35" t="n">
-        <v>788.2295105572106</v>
+        <v>876.152668748367</v>
       </c>
       <c r="F35" t="n">
-        <v>377.243605767603</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G35" t="n">
-        <v>377.243605767603</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H35" t="n">
         <v>46.89499644164432</v>
@@ -6937,22 +6937,22 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J35" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915532</v>
       </c>
       <c r="K35" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275672</v>
       </c>
       <c r="L35" t="n">
-        <v>762.5916738244548</v>
+        <v>762.5916738244546</v>
       </c>
       <c r="M35" t="n">
         <v>1190.549107376118</v>
       </c>
       <c r="N35" t="n">
-        <v>1610.799342072557</v>
+        <v>1610.799342072556</v>
       </c>
       <c r="O35" t="n">
-        <v>1962.442083972113</v>
+        <v>1962.442083972112</v>
       </c>
       <c r="P35" t="n">
         <v>2224.886645733486</v>
@@ -6961,28 +6961,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R35" t="n">
-        <v>2270.376276991245</v>
+        <v>2292.466515501677</v>
       </c>
       <c r="S35" t="n">
-        <v>2270.376276991245</v>
+        <v>2292.466515501677</v>
       </c>
       <c r="T35" t="n">
-        <v>2270.376276991245</v>
+        <v>2292.466515501677</v>
       </c>
       <c r="U35" t="n">
-        <v>2270.376276991245</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="V35" t="n">
-        <v>2270.376276991245</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="W35" t="n">
-        <v>1917.607621721131</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="X35" t="n">
-        <v>1917.607621721131</v>
+        <v>2038.680093386545</v>
       </c>
       <c r="Y35" t="n">
-        <v>1917.607621721131</v>
+        <v>1648.540761410733</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>622.1327649551149</v>
+        <v>988.8792202047736</v>
       </c>
       <c r="C36" t="n">
-        <v>447.6797356739879</v>
+        <v>814.4261909236466</v>
       </c>
       <c r="D36" t="n">
-        <v>420.3827549310374</v>
+        <v>665.4917812623953</v>
       </c>
       <c r="E36" t="n">
-        <v>261.1452999255819</v>
+        <v>506.2543262569397</v>
       </c>
       <c r="F36" t="n">
-        <v>114.6107419524668</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G36" t="n">
-        <v>114.6107419524668</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H36" t="n">
         <v>114.6107419524668</v>
@@ -7016,52 +7016,52 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J36" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K36" t="n">
-        <v>336.0641406922996</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L36" t="n">
-        <v>705.6153558007834</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M36" t="n">
-        <v>1188.843414867958</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N36" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O36" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P36" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q36" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R36" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S36" t="n">
-        <v>2123.072528197426</v>
+        <v>2235.581626718883</v>
       </c>
       <c r="T36" t="n">
-        <v>1923.529830251457</v>
+        <v>2036.038928772914</v>
       </c>
       <c r="U36" t="n">
-        <v>1695.349365905614</v>
+        <v>1807.858464427071</v>
       </c>
       <c r="V36" t="n">
-        <v>1460.197257673871</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="W36" t="n">
-        <v>1205.95990094567</v>
+        <v>1572.706356195328</v>
       </c>
       <c r="X36" t="n">
-        <v>998.1084007401369</v>
+        <v>1364.854855989795</v>
       </c>
       <c r="Y36" t="n">
-        <v>790.348101975183</v>
+        <v>1157.094557224842</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>426.1201086060704</v>
+        <v>164.3432697281501</v>
       </c>
       <c r="C37" t="n">
-        <v>352.7615066161414</v>
+        <v>164.3432697281501</v>
       </c>
       <c r="D37" t="n">
-        <v>352.7615066161414</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="E37" t="n">
-        <v>352.7615066161414</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="F37" t="n">
-        <v>205.8715591182311</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="G37" t="n">
-        <v>205.8715591182311</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="H37" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="I37" t="n">
-        <v>46.89499644164432</v>
+        <v>102.3180182963936</v>
       </c>
       <c r="J37" t="n">
         <v>46.89499644164432</v>
@@ -7116,31 +7116,31 @@
         <v>607.7685734363101</v>
       </c>
       <c r="Q37" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="R37" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="S37" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="T37" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="U37" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="V37" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="W37" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="X37" t="n">
-        <v>607.7685734363101</v>
+        <v>566.7843137019199</v>
       </c>
       <c r="Y37" t="n">
-        <v>607.7685734363101</v>
+        <v>345.9917345583898</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>505.6099232621625</v>
+        <v>961.4555726570356</v>
       </c>
       <c r="C38" t="n">
-        <v>136.6474063217507</v>
+        <v>961.4555726570356</v>
       </c>
       <c r="D38" t="n">
-        <v>46.89499644164432</v>
+        <v>961.4555726570356</v>
       </c>
       <c r="E38" t="n">
-        <v>46.89499644164432</v>
+        <v>575.6673200587913</v>
       </c>
       <c r="F38" t="n">
-        <v>46.89499644164432</v>
+        <v>465.1667639587595</v>
       </c>
       <c r="G38" t="n">
         <v>46.89499644164432</v>
@@ -7198,28 +7198,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R38" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S38" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T38" t="n">
-        <v>1867.198404760799</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="U38" t="n">
-        <v>1613.411982645667</v>
+        <v>2090.963399967083</v>
       </c>
       <c r="V38" t="n">
-        <v>1282.349095302096</v>
+        <v>2090.963399967083</v>
       </c>
       <c r="W38" t="n">
-        <v>1282.349095302096</v>
+        <v>1738.194744696969</v>
       </c>
       <c r="X38" t="n">
-        <v>1282.349095302096</v>
+        <v>1738.194744696969</v>
       </c>
       <c r="Y38" t="n">
-        <v>892.2097633262842</v>
+        <v>1348.055412721157</v>
       </c>
     </row>
     <row r="39">
@@ -7229,25 +7229,25 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>783.3663200545598</v>
+        <v>842.3446622316584</v>
       </c>
       <c r="C39" t="n">
-        <v>608.9132907734328</v>
+        <v>667.8916329505314</v>
       </c>
       <c r="D39" t="n">
-        <v>459.9788811121815</v>
+        <v>518.9572232892801</v>
       </c>
       <c r="E39" t="n">
-        <v>300.741426106726</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="F39" t="n">
-        <v>154.206868133611</v>
+        <v>359.7197682838247</v>
       </c>
       <c r="G39" t="n">
-        <v>46.89499644164432</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H39" t="n">
-        <v>46.89499644164432</v>
+        <v>114.6107419524668</v>
       </c>
       <c r="I39" t="n">
         <v>46.89499644164432</v>
@@ -7277,28 +7277,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R39" t="n">
-        <v>2284.306083296871</v>
+        <v>2296.75768180846</v>
       </c>
       <c r="S39" t="n">
-        <v>2284.306083296871</v>
+        <v>2135.524126709015</v>
       </c>
       <c r="T39" t="n">
-        <v>2084.763385350901</v>
+        <v>1935.981428763046</v>
       </c>
       <c r="U39" t="n">
-        <v>1856.582921005059</v>
+        <v>1707.800964417203</v>
       </c>
       <c r="V39" t="n">
-        <v>1621.430812773316</v>
+        <v>1472.648856185461</v>
       </c>
       <c r="W39" t="n">
-        <v>1367.193456045115</v>
+        <v>1218.411499457259</v>
       </c>
       <c r="X39" t="n">
-        <v>1159.341955839582</v>
+        <v>1010.559999251726</v>
       </c>
       <c r="Y39" t="n">
-        <v>951.5816570746279</v>
+        <v>1010.559999251726</v>
       </c>
     </row>
     <row r="40">
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>607.7685734363101</v>
+        <v>363.7442729519444</v>
       </c>
       <c r="C40" t="n">
-        <v>607.7685734363101</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="D40" t="n">
-        <v>607.7685734363101</v>
+        <v>194.8080900240374</v>
       </c>
       <c r="E40" t="n">
-        <v>607.7685734363101</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F40" t="n">
-        <v>570.9156784273715</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G40" t="n">
-        <v>401.7777381738809</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H40" t="n">
-        <v>242.8011754972942</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I40" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J40" t="n">
         <v>46.89499644164432</v>
@@ -7356,28 +7356,28 @@
         <v>607.7685734363101</v>
       </c>
       <c r="R40" t="n">
-        <v>607.7685734363101</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="S40" t="n">
-        <v>607.7685734363101</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="T40" t="n">
-        <v>607.7685734363101</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="U40" t="n">
-        <v>607.7685734363101</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="V40" t="n">
-        <v>607.7685734363101</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="W40" t="n">
-        <v>607.7685734363101</v>
+        <v>453.4106385108906</v>
       </c>
       <c r="X40" t="n">
-        <v>607.7685734363101</v>
+        <v>363.7442729519444</v>
       </c>
       <c r="Y40" t="n">
-        <v>607.7685734363101</v>
+        <v>363.7442729519444</v>
       </c>
     </row>
     <row r="41">
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2126.590628976322</v>
+        <v>1183.366862147115</v>
       </c>
       <c r="C41" t="n">
-        <v>1757.628112035911</v>
+        <v>814.4043452067033</v>
       </c>
       <c r="D41" t="n">
-        <v>1757.628112035911</v>
+        <v>814.4043452067033</v>
       </c>
       <c r="E41" t="n">
-        <v>1371.839859437666</v>
+        <v>814.4043452067033</v>
       </c>
       <c r="F41" t="n">
-        <v>960.8539546480588</v>
+        <v>795.5153732847182</v>
       </c>
       <c r="G41" t="n">
-        <v>542.5821871309436</v>
+        <v>377.243605767603</v>
       </c>
       <c r="H41" t="n">
-        <v>212.2335778049849</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I41" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J41" t="n">
-        <v>137.0453218915534</v>
+        <v>137.0453218915538</v>
       </c>
       <c r="K41" t="n">
-        <v>392.9020949275675</v>
+        <v>392.9020949275679</v>
       </c>
       <c r="L41" t="n">
-        <v>762.5916738244548</v>
+        <v>762.5916738244553</v>
       </c>
       <c r="M41" t="n">
-        <v>1190.549107376118</v>
+        <v>1190.549107376119</v>
       </c>
       <c r="N41" t="n">
         <v>1610.799342072557</v>
@@ -7429,34 +7429,34 @@
         <v>1962.442083972113</v>
       </c>
       <c r="P41" t="n">
-        <v>2224.886645733486</v>
+        <v>2224.886645733487</v>
       </c>
       <c r="Q41" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R41" t="n">
-        <v>2344.749822082216</v>
+        <v>2270.376276991246</v>
       </c>
       <c r="S41" t="n">
-        <v>2344.749822082216</v>
+        <v>2087.181164129222</v>
       </c>
       <c r="T41" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="U41" t="n">
-        <v>2344.749822082216</v>
+        <v>1867.1984047608</v>
       </c>
       <c r="V41" t="n">
-        <v>2344.749822082216</v>
+        <v>1536.135517417229</v>
       </c>
       <c r="W41" t="n">
-        <v>2344.749822082216</v>
+        <v>1183.366862147115</v>
       </c>
       <c r="X41" t="n">
-        <v>2344.749822082216</v>
+        <v>1183.366862147115</v>
       </c>
       <c r="Y41" t="n">
-        <v>2344.749822082216</v>
+        <v>1183.366862147115</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>850.3132293009576</v>
+        <v>850.8043343374655</v>
       </c>
       <c r="C42" t="n">
-        <v>675.8602000198306</v>
+        <v>676.3513050563386</v>
       </c>
       <c r="D42" t="n">
-        <v>526.9257903585793</v>
+        <v>527.4168953950873</v>
       </c>
       <c r="E42" t="n">
-        <v>367.6883353531238</v>
+        <v>368.1794403896317</v>
       </c>
       <c r="F42" t="n">
-        <v>221.1537773800088</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="G42" t="n">
-        <v>221.1537773800088</v>
+        <v>221.6448824165167</v>
       </c>
       <c r="H42" t="n">
         <v>114.6107419524668</v>
@@ -7490,19 +7490,19 @@
         <v>46.89499644164432</v>
       </c>
       <c r="J42" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K42" t="n">
-        <v>336.0641406922996</v>
+        <v>273.126860749845</v>
       </c>
       <c r="L42" t="n">
-        <v>705.6153558007834</v>
+        <v>642.6780758583288</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.843414867958</v>
+        <v>1125.906134925503</v>
       </c>
       <c r="N42" t="n">
-        <v>1637.630816213676</v>
+        <v>1637.630816213677</v>
       </c>
       <c r="O42" t="n">
         <v>2039.343247810003</v>
@@ -7514,28 +7514,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R42" t="n">
-        <v>2284.306083296871</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S42" t="n">
-        <v>2123.072528197426</v>
+        <v>2183.516266982771</v>
       </c>
       <c r="T42" t="n">
-        <v>1923.529830251457</v>
+        <v>2152.201399633807</v>
       </c>
       <c r="U42" t="n">
-        <v>1923.529830251457</v>
+        <v>1924.020935287964</v>
       </c>
       <c r="V42" t="n">
-        <v>1688.377722019714</v>
+        <v>1688.868827056222</v>
       </c>
       <c r="W42" t="n">
-        <v>1434.140365291512</v>
+        <v>1434.63147032802</v>
       </c>
       <c r="X42" t="n">
-        <v>1226.28886508598</v>
+        <v>1226.779970122487</v>
       </c>
       <c r="Y42" t="n">
-        <v>1018.528566321026</v>
+        <v>1019.019671357534</v>
       </c>
     </row>
     <row r="43">
@@ -7560,19 +7560,19 @@
         <v>318.3514033993495</v>
       </c>
       <c r="G43" t="n">
-        <v>149.213463145859</v>
+        <v>205.8715591182311</v>
       </c>
       <c r="H43" t="n">
-        <v>149.213463145859</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I43" t="n">
-        <v>102.3180182963936</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="J43" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="K43" t="n">
-        <v>87.46721626702974</v>
+        <v>87.46721626702976</v>
       </c>
       <c r="L43" t="n">
         <v>194.9121237200977</v>
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1282.349095302096</v>
+        <v>1377.970252133248</v>
       </c>
       <c r="C44" t="n">
-        <v>913.3865783616843</v>
+        <v>1009.007735192837</v>
       </c>
       <c r="D44" t="n">
-        <v>913.3865783616843</v>
+        <v>1009.007735192837</v>
       </c>
       <c r="E44" t="n">
-        <v>913.3865783616843</v>
+        <v>623.2194825945925</v>
       </c>
       <c r="F44" t="n">
-        <v>913.3865783616843</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="G44" t="n">
-        <v>495.1148108445691</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="H44" t="n">
-        <v>164.7662015186104</v>
+        <v>212.2335778049849</v>
       </c>
       <c r="I44" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J44" t="n">
-        <v>137.0453218915535</v>
+        <v>137.0453218915534</v>
       </c>
       <c r="K44" t="n">
         <v>392.9020949275675</v>
@@ -7660,10 +7660,10 @@
         <v>1190.549107376118</v>
       </c>
       <c r="N44" t="n">
-        <v>1610.799342072556</v>
+        <v>1610.799342072557</v>
       </c>
       <c r="O44" t="n">
-        <v>1962.442083972112</v>
+        <v>1962.442083972113</v>
       </c>
       <c r="P44" t="n">
         <v>2224.886645733486</v>
@@ -7672,28 +7672,28 @@
         <v>2344.749822082216</v>
       </c>
       <c r="R44" t="n">
-        <v>2270.376276991245</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="S44" t="n">
-        <v>2087.181164129221</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="T44" t="n">
-        <v>1867.198404760799</v>
+        <v>2124.767062713794</v>
       </c>
       <c r="U44" t="n">
-        <v>1613.411982645667</v>
+        <v>1870.980640598661</v>
       </c>
       <c r="V44" t="n">
-        <v>1282.349095302096</v>
+        <v>1870.980640598661</v>
       </c>
       <c r="W44" t="n">
-        <v>1282.349095302096</v>
+        <v>1870.980640598661</v>
       </c>
       <c r="X44" t="n">
-        <v>1282.349095302096</v>
+        <v>1870.980640598661</v>
       </c>
       <c r="Y44" t="n">
-        <v>1282.349095302096</v>
+        <v>1480.84130862285</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.8792202047736</v>
+        <v>622.1327649551149</v>
       </c>
       <c r="C45" t="n">
-        <v>814.4261909236466</v>
+        <v>501.6014190814661</v>
       </c>
       <c r="D45" t="n">
-        <v>665.4917812623953</v>
+        <v>352.6670094202149</v>
       </c>
       <c r="E45" t="n">
-        <v>506.2543262569397</v>
+        <v>193.4295544147593</v>
       </c>
       <c r="F45" t="n">
-        <v>359.7197682838247</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G45" t="n">
-        <v>221.6448824165167</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H45" t="n">
-        <v>114.6107419524668</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="I45" t="n">
         <v>46.89499644164432</v>
       </c>
       <c r="J45" t="n">
-        <v>106.8945330050502</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="K45" t="n">
-        <v>121.6684232076318</v>
+        <v>276.0646041288937</v>
       </c>
       <c r="L45" t="n">
-        <v>491.2196383161157</v>
+        <v>645.6158192373775</v>
       </c>
       <c r="M45" t="n">
-        <v>974.44769738329</v>
+        <v>1128.843878304552</v>
       </c>
       <c r="N45" t="n">
-        <v>1486.172378671464</v>
+        <v>1640.568559592725</v>
       </c>
       <c r="O45" t="n">
-        <v>1887.88481026779</v>
+        <v>2042.280991189052</v>
       </c>
       <c r="P45" t="n">
-        <v>2193.291384540003</v>
+        <v>2344.749822082216</v>
       </c>
       <c r="Q45" t="n">
         <v>2344.749822082216</v>
       </c>
       <c r="R45" t="n">
-        <v>2344.749822082216</v>
+        <v>2284.306083296871</v>
       </c>
       <c r="S45" t="n">
-        <v>2183.516266982771</v>
+        <v>2123.072528197426</v>
       </c>
       <c r="T45" t="n">
-        <v>1983.973569036802</v>
+        <v>1923.529830251457</v>
       </c>
       <c r="U45" t="n">
-        <v>1755.793104690959</v>
+        <v>1695.349365905614</v>
       </c>
       <c r="V45" t="n">
-        <v>1755.793104690959</v>
+        <v>1460.197257673871</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.706356195328</v>
+        <v>1205.95990094567</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.854855989795</v>
+        <v>998.1084007401369</v>
       </c>
       <c r="Y45" t="n">
-        <v>1157.094557224842</v>
+        <v>790.348101975183</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>205.8715591182311</v>
+        <v>197.01163585398</v>
       </c>
       <c r="C46" t="n">
-        <v>205.8715591182311</v>
+        <v>197.01163585398</v>
       </c>
       <c r="D46" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="E46" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="F46" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="G46" t="n">
-        <v>205.8715591182311</v>
+        <v>46.89499644164432</v>
       </c>
       <c r="H46" t="n">
         <v>46.89499644164432</v>
@@ -7839,19 +7839,19 @@
         <v>607.7685734363101</v>
       </c>
       <c r="U46" t="n">
-        <v>607.7685734363101</v>
+        <v>486.4288058909407</v>
       </c>
       <c r="V46" t="n">
-        <v>607.7685734363101</v>
+        <v>486.4288058909407</v>
       </c>
       <c r="W46" t="n">
-        <v>318.3514033993495</v>
+        <v>197.01163585398</v>
       </c>
       <c r="X46" t="n">
-        <v>205.8715591182311</v>
+        <v>197.01163585398</v>
       </c>
       <c r="Y46" t="n">
-        <v>205.8715591182311</v>
+        <v>197.01163585398</v>
       </c>
     </row>
   </sheetData>
@@ -8060,13 +8060,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>369.8307175917693</v>
       </c>
       <c r="M3" t="n">
-        <v>303.312501347746</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8075,7 +8075,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
         <v>139.9817740860215</v>
@@ -8297,10 +8297,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
@@ -8309,7 +8309,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>255.9771075721939</v>
       </c>
       <c r="P6" t="n">
         <v>133.9744074143302</v>
@@ -8543,13 +8543,13 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>261.4978194579835</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8780,7 +8780,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>262.7810435509598</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9014,7 +9014,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>249.1437329574067</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9023,10 +9023,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K18" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>367.8729277488641</v>
       </c>
       <c r="M18" t="n">
-        <v>249.1437329574063</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9719,7 +9719,7 @@
         <v>65.48544285212002</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>108.5094987082737</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>315.495351085342</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.08896698613913</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9953,10 +9953,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>65.48544285212002</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>108.5094987082741</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9968,7 +9968,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>177.3009884841357</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10193,7 +10193,7 @@
         <v>65.48544285212002</v>
       </c>
       <c r="K30" t="n">
-        <v>261.4978194579835</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10208,7 +10208,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q30" t="n">
         <v>57.08896698613913</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K33" t="n">
-        <v>47.90390621998484</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>367.8729277488641</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10448,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10676,16 +10676,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>262.7810435509599</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -11059,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720741</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11138,10 +11138,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>261.497819457984</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>415.7693643006697</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>65.48544285212002</v>
       </c>
       <c r="K45" t="n">
-        <v>47.90390621998484</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>315.495351085342</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>57.08896698613913</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,16 +23266,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>386.8306254721881</v>
       </c>
       <c r="G11" t="n">
-        <v>30.96077946991562</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23317,13 +23317,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -23354,7 +23354,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -23384,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>59.83930139749141</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23393,19 +23393,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>51.5447061387504</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>31.21653193536818</v>
       </c>
     </row>
     <row r="13">
@@ -23427,19 +23427,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>54.06789032788008</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J13" t="n">
-        <v>54.86879163620181</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,22 +23460,22 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>40.5744171370463</v>
+        <v>40.57441713704632</v>
       </c>
       <c r="R13" t="n">
         <v>152.8143555761653</v>
       </c>
       <c r="S13" t="n">
-        <v>214.5288682289405</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>225.6194376234954</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>137.0211079515448</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>250.0094255836895</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23515,7 +23515,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>30.96077946991579</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23591,7 +23591,7 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23621,16 +23621,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S15" t="n">
         <v>159.6212195484502</v>
       </c>
       <c r="T15" t="n">
-        <v>197.5472709665096</v>
+        <v>37.65467069181057</v>
       </c>
       <c r="U15" t="n">
-        <v>5.910500182201503</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23664,13 +23664,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I16" t="n">
         <v>139.0783256288916</v>
@@ -23703,13 +23703,13 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T16" t="n">
-        <v>42.27026167753766</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2893338015361</v>
+        <v>269.3117993218715</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>272.2678983494328</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I17" t="n">
-        <v>163.6851955497072</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>181.3631617334038</v>
       </c>
       <c r="T17" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>263.4734747805499</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -23822,16 +23822,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I18" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23870,16 +23870,16 @@
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>44.34541948052799</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>112.0459792443686</v>
       </c>
     </row>
     <row r="19">
@@ -23904,10 +23904,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>139.0783256288916</v>
@@ -23937,19 +23937,19 @@
         <v>40.57441713704632</v>
       </c>
       <c r="R19" t="n">
-        <v>37.69782020388213</v>
+        <v>152.8143555761653</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>214.5288682289405</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>225.6194376234954</v>
       </c>
       <c r="U19" t="n">
         <v>286.2893338015361</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>21.70615999988539</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>33.70709820239944</v>
       </c>
       <c r="I20" t="n">
-        <v>7.067011098583095</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,10 +24016,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>157.3962949198577</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -24104,7 +24104,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>190.3704917088464</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -24116,7 +24116,7 @@
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24144,7 +24144,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H22" t="n">
-        <v>34.09157933086701</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I22" t="n">
         <v>139.0783256288916</v>
@@ -24183,13 +24183,13 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>17.54749091340801</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24208,19 +24208,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>182.8438538381627</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>181.3631617334038</v>
@@ -24262,7 +24262,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -24271,7 +24271,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>273.9470440707466</v>
       </c>
       <c r="Y23" t="n">
         <v>386.2379386560536</v>
@@ -24332,19 +24332,19 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.8986597023843</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>137.1803309947778</v>
       </c>
       <c r="W24" t="n">
         <v>0</v>
@@ -24353,7 +24353,7 @@
         <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>143.6184697512201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -24363,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>157.3867970498209</v>
       </c>
       <c r="I25" t="n">
-        <v>88.68747155780336</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J25" t="n">
         <v>54.86879163620182</v>
@@ -24420,7 +24420,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24429,10 +24429,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>17.52361544488315</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>274.2592518658403</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -24457,10 +24457,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>230.4072648194619</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24490,13 +24490,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U26" t="n">
         <v>251.2485578939812</v>
@@ -24508,10 +24508,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24533,7 +24533,7 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>53.38246657340298</v>
+        <v>53.38246657340341</v>
       </c>
       <c r="G27" t="n">
         <v>136.6941370086349</v>
@@ -24609,13 +24609,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>10.75332559663363</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>167.4465608509556</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>157.3867970498209</v>
@@ -24657,10 +24657,10 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U28" t="n">
-        <v>96.04310857548094</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24669,7 +24669,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24691,16 +24691,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>384.2285785612382</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,19 +24727,19 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T29" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2485578939812</v>
+        <v>166.0224582600044</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24748,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24770,7 +24770,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -24812,10 +24812,10 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>190.076603582038</v>
       </c>
       <c r="U30" t="n">
-        <v>45.00739118865445</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24888,16 +24888,16 @@
         <v>152.8143555761653</v>
       </c>
       <c r="S31" t="n">
-        <v>214.5288682289405</v>
+        <v>103.5583357453534</v>
       </c>
       <c r="T31" t="n">
         <v>225.6194376234954</v>
       </c>
       <c r="U31" t="n">
-        <v>208.8717912896822</v>
+        <v>286.2893338015361</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24916,19 +24916,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -24967,25 +24967,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2485578939812</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>274.1516296619204</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>33.27362794922448</v>
       </c>
     </row>
     <row r="33">
@@ -25001,19 +25001,19 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>45.00739118865441</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H33" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>67.03858805571426</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>159.3462656328126</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>52.45246356162141</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.4465608509556</v>
@@ -25131,16 +25131,16 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2893338015361</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>208.8717912896821</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>366.5358150751516</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -25168,10 +25168,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I35" t="n">
         <v>163.6851955497072</v>
@@ -25201,7 +25201,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>21.86933612532806</v>
       </c>
       <c r="S35" t="n">
         <v>181.3631617334038</v>
@@ -25210,19 +25210,19 @@
         <v>217.7829317747374</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2485578939812</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25238,7 +25238,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>120.4210546291177</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -25247,10 +25247,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>136.6941370086349</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25280,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>51.54470613875067</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25295,7 +25295,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -25314,28 +25314,28 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>94.62180512859817</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>87.21047410077347</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.4465608509556</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I37" t="n">
         <v>139.0783256288916</v>
       </c>
       <c r="J37" t="n">
-        <v>54.86879163620182</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -25356,7 +25356,7 @@
         <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>40.57441713704632</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>152.8143555761653</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,19 +25393,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>265.8281558393776</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>297.4804952026799</v>
       </c>
       <c r="G38" t="n">
-        <v>414.089049841944</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>327.0451232326991</v>
@@ -25438,22 +25438,22 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>217.7829317747374</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -25481,16 +25481,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>30.45538403358788</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>105.9637990594094</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>67.03858805571426</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,10 +25517,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>12.32708252647352</v>
       </c>
       <c r="S39" t="n">
-        <v>159.6212195484502</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25551,28 +25551,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>108.936681964082</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.4465608509556</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>40.57441713704632</v>
       </c>
       <c r="R40" t="n">
-        <v>152.8143555761653</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>214.5288682289405</v>
@@ -25614,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>136.9399534856803</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>166.7562404886462</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -25636,10 +25636,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>388.1759635389462</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>163.6851955497072</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,22 +25675,22 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>73.62980964006114</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>181.3631617334038</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>217.7829317747374</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2485578939812</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -25724,7 +25724,7 @@
         <v>136.6941370086349</v>
       </c>
       <c r="H42" t="n">
-        <v>0.4861939861428652</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -25754,16 +25754,16 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>59.83930139749143</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>166.5455522910352</v>
       </c>
       <c r="U42" t="n">
-        <v>225.8986597023843</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25800,16 +25800,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>56.09151501264836</v>
       </c>
       <c r="H43" t="n">
-        <v>157.3867970498209</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>92.65183522792088</v>
+        <v>139.0783256288916</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>54.86879163620182</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>280.8914957387752</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,19 +25873,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>414.089049841944</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>327.0451232326991</v>
       </c>
       <c r="I44" t="n">
-        <v>46.99270252351074</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,10 +25912,10 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>73.62980964006114</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>181.3631617334038</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25933,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25946,7 +25946,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>53.38246657340346</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -25958,13 +25958,13 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.6941370086349</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>105.9637990594094</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>67.03858805571426</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25991,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>59.83930139749143</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -26003,10 +26003,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>70.43910215024525</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26040,7 +26040,7 @@
         <v>167.4465608509556</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>157.3867970498209</v>
       </c>
       <c r="I46" t="n">
         <v>139.0783256288916</v>
@@ -26079,7 +26079,7 @@
         <v>225.6194376234954</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2893338015361</v>
+        <v>166.1629639316204</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>114.3546095507299</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>550725.9610106074</v>
+        <v>550725.9610106073</v>
       </c>
     </row>
     <row r="7">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>550725.9610106073</v>
+        <v>550725.9610106074</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>550725.9610106075</v>
+        <v>550725.9610106073</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>550725.9610106075</v>
+        <v>550725.9610106074</v>
       </c>
     </row>
     <row r="12">
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516051</v>
+      </c>
+      <c r="C2" t="n">
+        <v>595255.2831516051</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516053</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516052</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516051</v>
-      </c>
       <c r="E2" t="n">
-        <v>383345.3446581121</v>
+        <v>383345.3446581122</v>
       </c>
       <c r="F2" t="n">
-        <v>383345.3446581121</v>
+        <v>383345.3446581122</v>
       </c>
       <c r="G2" t="n">
         <v>383345.3446581122</v>
       </c>
       <c r="H2" t="n">
-        <v>383345.3446581121</v>
+        <v>383345.3446581123</v>
       </c>
       <c r="I2" t="n">
-        <v>383345.3446581122</v>
+        <v>383345.3446581123</v>
       </c>
       <c r="J2" t="n">
-        <v>383345.3446581122</v>
+        <v>383345.344658112</v>
       </c>
       <c r="K2" t="n">
         <v>383345.3446581122</v>
       </c>
       <c r="L2" t="n">
-        <v>383345.3446581122</v>
+        <v>383345.3446581123</v>
       </c>
       <c r="M2" t="n">
         <v>383345.3446581122</v>
@@ -26352,7 +26352,7 @@
         <v>383345.3446581122</v>
       </c>
       <c r="O2" t="n">
-        <v>383345.3446581122</v>
+        <v>383345.3446581124</v>
       </c>
       <c r="P2" t="n">
         <v>383345.3446581122</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>345612.3427789527</v>
+        <v>345612.3427789526</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910626</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>86018.533820076</v>
+        <v>86018.53382007597</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26441,7 +26441,7 @@
         <v>9200.106879687155</v>
       </c>
       <c r="J4" t="n">
-        <v>9200.106879687157</v>
+        <v>9200.106879687155</v>
       </c>
       <c r="K4" t="n">
         <v>9200.106879687155</v>
@@ -26456,7 +26456,7 @@
         <v>9200.106879687155</v>
       </c>
       <c r="O4" t="n">
-        <v>9200.106879687155</v>
+        <v>9200.106879687157</v>
       </c>
       <c r="P4" t="n">
         <v>9200.106879687155</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>178711.9441524941</v>
+        <v>178711.9441524938</v>
       </c>
       <c r="C6" t="n">
-        <v>259481.3756840417</v>
+        <v>259481.3756840416</v>
       </c>
       <c r="D6" t="n">
-        <v>259481.3756840416</v>
+        <v>259481.3756840418</v>
       </c>
       <c r="E6" t="n">
-        <v>-13688.82712597435</v>
+        <v>-20996.06638437049</v>
       </c>
       <c r="F6" t="n">
-        <v>331923.5156529784</v>
+        <v>324616.2763945822</v>
       </c>
       <c r="G6" t="n">
-        <v>331923.5156529785</v>
+        <v>324616.2763945822</v>
       </c>
       <c r="H6" t="n">
-        <v>331923.5156529784</v>
+        <v>324616.2763945822</v>
       </c>
       <c r="I6" t="n">
-        <v>331923.5156529785</v>
+        <v>324616.2763945822</v>
       </c>
       <c r="J6" t="n">
-        <v>268863.5730538722</v>
+        <v>261556.3337954758</v>
       </c>
       <c r="K6" t="n">
-        <v>331923.5156529784</v>
+        <v>324616.2763945822</v>
       </c>
       <c r="L6" t="n">
-        <v>331923.5156529784</v>
+        <v>324616.2763945822</v>
       </c>
       <c r="M6" t="n">
-        <v>245904.9818329025</v>
+        <v>238597.7425745062</v>
       </c>
       <c r="N6" t="n">
-        <v>331923.5156529784</v>
+        <v>324616.2763945822</v>
       </c>
       <c r="O6" t="n">
-        <v>331923.5156529784</v>
+        <v>324616.2763945824</v>
       </c>
       <c r="P6" t="n">
-        <v>331923.5156529784</v>
+        <v>324616.2763945821</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="F3" t="n">
         <v>301.9048087062786</v>
@@ -26798,10 +26798,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="F4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="G4" t="n">
         <v>586.187455520554</v>
@@ -26813,7 +26813,7 @@
         <v>586.187455520554</v>
       </c>
       <c r="J4" t="n">
-        <v>586.1874555205541</v>
+        <v>586.187455520554</v>
       </c>
       <c r="K4" t="n">
         <v>586.187455520554</v>
@@ -26828,7 +26828,7 @@
         <v>586.187455520554</v>
       </c>
       <c r="O4" t="n">
-        <v>586.187455520554</v>
+        <v>586.1874555205541</v>
       </c>
       <c r="P4" t="n">
         <v>586.187455520554</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>301.9048087062787</v>
+        <v>301.9048087062786</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428949</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776592</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428948</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>345.173166642895</v>
+        <v>345.1731666428949</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27387,13 +27387,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>181.5942737834321</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>199.8391668911481</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27423,13 +27423,13 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -27438,7 +27438,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -27457,7 +27457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
         <v>172.7084989883157</v>
@@ -27475,7 +27475,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>77.47188828931242</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27505,19 +27505,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27526,7 +27526,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>116.8802860248803</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27605,7 +27605,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>85.39768576672677</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,10 +27630,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>321.1773062394785</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,10 +27681,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>136.3490907409544</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,28 +27742,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>62.69327450160762</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>147.6646538491678</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27797,10 +27797,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27830,7 +27830,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>249.2126826229021</v>
+        <v>178.1229943321122</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27861,22 +27861,22 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>370.0666432769693</v>
       </c>
       <c r="F8" t="n">
-        <v>209.8933976134044</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,22 +27897,22 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27921,7 +27921,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,28 +27931,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>56.45145718935679</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,22 +27982,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>101.7811932823757</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28067,7 +28067,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
-        <v>178.1229943321122</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>117.5136203646585</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -31758,43 +31758,43 @@
         <v>12.42967888306804</v>
       </c>
       <c r="I11" t="n">
-        <v>46.79069402069874</v>
+        <v>46.79069402069872</v>
       </c>
       <c r="J11" t="n">
         <v>103.0102241525006</v>
       </c>
       <c r="K11" t="n">
-        <v>154.3856233586786</v>
+        <v>154.3856233586785</v>
       </c>
       <c r="L11" t="n">
-        <v>191.5290174870998</v>
+        <v>191.5290174870997</v>
       </c>
       <c r="M11" t="n">
-        <v>213.1129356452115</v>
+        <v>213.1129356452114</v>
       </c>
       <c r="N11" t="n">
-        <v>216.5613257466656</v>
+        <v>216.5613257466655</v>
       </c>
       <c r="O11" t="n">
-        <v>204.4927189463719</v>
+        <v>204.4927189463718</v>
       </c>
       <c r="P11" t="n">
-        <v>174.5298045144674</v>
+        <v>174.5298045144673</v>
       </c>
       <c r="Q11" t="n">
-        <v>131.0646147183122</v>
+        <v>131.0646147183121</v>
       </c>
       <c r="R11" t="n">
-        <v>76.23930830108857</v>
+        <v>76.23930830108854</v>
       </c>
       <c r="S11" t="n">
-        <v>27.65690785284152</v>
+        <v>27.65690785284151</v>
       </c>
       <c r="T11" t="n">
-        <v>5.312917789393908</v>
+        <v>5.312917789393906</v>
       </c>
       <c r="U11" t="n">
-        <v>0.09709501385528552</v>
+        <v>0.09709501385528548</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.6493801545757693</v>
+        <v>0.649380154575769</v>
       </c>
       <c r="H12" t="n">
-        <v>6.271645177087036</v>
+        <v>6.271645177087033</v>
       </c>
       <c r="I12" t="n">
-        <v>22.35804479570083</v>
+        <v>22.35804479570082</v>
       </c>
       <c r="J12" t="n">
-        <v>61.3521838145467</v>
+        <v>61.35218381454668</v>
       </c>
       <c r="K12" t="n">
         <v>104.8606541711232</v>
       </c>
       <c r="L12" t="n">
-        <v>140.9980901415503</v>
+        <v>140.9980901415502</v>
       </c>
       <c r="M12" t="n">
-        <v>164.5381207449219</v>
+        <v>164.5381207449218</v>
       </c>
       <c r="N12" t="n">
         <v>168.8929552025813</v>
       </c>
       <c r="O12" t="n">
-        <v>154.5040580932972</v>
+        <v>154.5040580932971</v>
       </c>
       <c r="P12" t="n">
         <v>124.0031279382449</v>
       </c>
       <c r="Q12" t="n">
-        <v>82.89280709988242</v>
+        <v>82.89280709988239</v>
       </c>
       <c r="R12" t="n">
-        <v>40.31853275515172</v>
+        <v>40.31853275515171</v>
       </c>
       <c r="S12" t="n">
-        <v>12.06195155538764</v>
+        <v>12.06195155538763</v>
       </c>
       <c r="T12" t="n">
-        <v>2.617457728311981</v>
+        <v>2.61745772831198</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04272237859051115</v>
+        <v>0.04272237859051114</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5444185075031255</v>
+        <v>0.5444185075031253</v>
       </c>
       <c r="H13" t="n">
-        <v>4.840375457618701</v>
+        <v>4.840375457618698</v>
       </c>
       <c r="I13" t="n">
         <v>16.37214929836672</v>
       </c>
       <c r="J13" t="n">
-        <v>38.49038848047097</v>
+        <v>38.49038848047095</v>
       </c>
       <c r="K13" t="n">
-        <v>63.25153205354492</v>
+        <v>63.2515320535449</v>
       </c>
       <c r="L13" t="n">
-        <v>80.9401842882374</v>
+        <v>80.94018428823738</v>
       </c>
       <c r="M13" t="n">
-        <v>85.34007568069447</v>
+        <v>85.34007568069443</v>
       </c>
       <c r="N13" t="n">
-        <v>83.31087942545561</v>
+        <v>83.31087942545558</v>
       </c>
       <c r="O13" t="n">
-        <v>76.95108140598725</v>
+        <v>76.95108140598722</v>
       </c>
       <c r="P13" t="n">
-        <v>65.84494385292344</v>
+        <v>65.84494385292341</v>
       </c>
       <c r="Q13" t="n">
-        <v>45.58762611464808</v>
+        <v>45.58762611464806</v>
       </c>
       <c r="R13" t="n">
-        <v>24.47903580100416</v>
+        <v>24.47903580100415</v>
       </c>
       <c r="S13" t="n">
-        <v>9.487729808031737</v>
+        <v>9.487729808031734</v>
       </c>
       <c r="T13" t="n">
-        <v>2.326151804786081</v>
+        <v>2.32615180478608</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02969555495471597</v>
+        <v>0.02969555495471595</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -34780,13 +34780,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>231.276337811895</v>
       </c>
       <c r="M3" t="n">
-        <v>161.1784674257276</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34795,7 +34795,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
@@ -35029,7 +35029,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -35263,13 +35263,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P9" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>91.06093479788808</v>
+        <v>91.06093479788805</v>
       </c>
       <c r="K11" t="n">
         <v>258.4411848848628</v>
       </c>
       <c r="L11" t="n">
-        <v>373.423817067563</v>
+        <v>373.4238170675629</v>
       </c>
       <c r="M11" t="n">
-        <v>432.2802359107712</v>
+        <v>432.2802359107711</v>
       </c>
       <c r="N11" t="n">
         <v>424.4951865620588</v>
       </c>
       <c r="O11" t="n">
-        <v>355.1946887874306</v>
+        <v>355.1946887874304</v>
       </c>
       <c r="P11" t="n">
         <v>265.0955169306804</v>
       </c>
       <c r="Q11" t="n">
-        <v>121.0739155037674</v>
+        <v>121.0739155037673</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>60.60559248828884</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>231.4844522093429</v>
+        <v>228.5170346547477</v>
       </c>
       <c r="L12" t="n">
-        <v>373.2840556651353</v>
+        <v>373.2840556651352</v>
       </c>
       <c r="M12" t="n">
         <v>488.1091505729034</v>
       </c>
       <c r="N12" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O12" t="n">
-        <v>405.7701329255823</v>
+        <v>405.7701329255822</v>
       </c>
       <c r="P12" t="n">
         <v>308.4914891638518</v>
       </c>
       <c r="Q12" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>40.98204022766207</v>
+        <v>40.98204022766205</v>
       </c>
       <c r="L13" t="n">
         <v>108.5302095485535</v>
       </c>
       <c r="M13" t="n">
-        <v>124.9239526425351</v>
+        <v>124.923952642535</v>
       </c>
       <c r="N13" t="n">
         <v>127.4430518046842</v>
@@ -35585,7 +35585,7 @@
         <v>101.5362093200269</v>
       </c>
       <c r="P13" t="n">
-        <v>63.12350311781692</v>
+        <v>63.1235031178169</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>231.4844522093428</v>
@@ -35734,7 +35734,7 @@
         <v>373.2840556651352</v>
       </c>
       <c r="M15" t="n">
-        <v>271.5478197803102</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N15" t="n">
         <v>516.8936174628016</v>
@@ -35743,10 +35743,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P15" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q15" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>231.4844522093428</v>
       </c>
       <c r="L18" t="n">
-        <v>373.2840556651352</v>
+        <v>370.3166381105401</v>
       </c>
       <c r="M18" t="n">
-        <v>271.5478197803097</v>
+        <v>488.1091505729034</v>
       </c>
       <c r="N18" t="n">
         <v>516.8936174628016</v>
@@ -35983,7 +35983,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q18" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>231.4844522093428</v>
+        <v>75.52871390503788</v>
       </c>
       <c r="L24" t="n">
         <v>373.2840556651352</v>
@@ -36454,10 +36454,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P24" t="n">
-        <v>305.5240716092566</v>
+        <v>308.4914891638518</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>152.98832074971</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>60.60559248828882</v>
       </c>
       <c r="K27" t="n">
-        <v>75.52871390503832</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L27" t="n">
         <v>373.2840556651352</v>
@@ -36688,7 +36688,7 @@
         <v>516.8936174628016</v>
       </c>
       <c r="O27" t="n">
-        <v>405.7701329255822</v>
+        <v>189.2088021329884</v>
       </c>
       <c r="P27" t="n">
         <v>308.4914891638518</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>228.5170346547477</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L30" t="n">
         <v>373.2840556651352</v>
@@ -36928,7 +36928,7 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P30" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37147,13 +37147,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>14.92312141674905</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L33" t="n">
-        <v>373.2840556651352</v>
+        <v>370.3166381105401</v>
       </c>
       <c r="M33" t="n">
         <v>488.1091505729034</v>
@@ -37168,7 +37168,7 @@
         <v>308.4914891638518</v>
       </c>
       <c r="Q33" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>231.4844522093428</v>
@@ -37396,16 +37396,16 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N36" t="n">
-        <v>300.3322866702078</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O36" t="n">
         <v>405.7701329255822</v>
       </c>
       <c r="P36" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q36" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37779,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>91.06093479788805</v>
+        <v>91.06093479788835</v>
       </c>
       <c r="K41" t="n">
         <v>258.4411848848628</v>
@@ -37858,10 +37858,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>231.4844522093428</v>
+        <v>228.5170346547482</v>
       </c>
       <c r="L42" t="n">
         <v>373.2840556651352</v>
@@ -37870,7 +37870,7 @@
         <v>488.1091505729034</v>
       </c>
       <c r="N42" t="n">
-        <v>453.3206074199177</v>
+        <v>516.8936174628016</v>
       </c>
       <c r="O42" t="n">
         <v>405.7701329255822</v>
@@ -38019,7 +38019,7 @@
         <v>91.06093479788805</v>
       </c>
       <c r="K44" t="n">
-        <v>258.4411848848626</v>
+        <v>258.4411848848628</v>
       </c>
       <c r="L44" t="n">
         <v>373.4238170675629</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>60.60559248828882</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>14.92312141674905</v>
+        <v>231.4844522093428</v>
       </c>
       <c r="L45" t="n">
         <v>373.2840556651352</v>
@@ -38113,10 +38113,10 @@
         <v>405.7701329255822</v>
       </c>
       <c r="P45" t="n">
-        <v>308.4914891638518</v>
+        <v>305.5240716092566</v>
       </c>
       <c r="Q45" t="n">
-        <v>152.98832074971</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
